--- a/biology/Zoologie/Falcileptoneta_inagakii/Falcileptoneta_inagakii.xlsx
+++ b/biology/Zoologie/Falcileptoneta_inagakii/Falcileptoneta_inagakii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Falcileptoneta inagakii est une espèce d'araignées aranéomorphes de la famille des Leptonetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falcileptoneta inagakii est une espèce d'araignées aranéomorphes de la famille des Leptonetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Honshū au Japon[1]. Elle se rencontre dans la grotte Haigama-no-ana à Shima dans la préfecture de Mie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Honshū au Japon. Elle se rencontre dans la grotte Haigama-no-ana à Shima dans la préfecture de Mie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,64 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,64 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Masashi Inagaki[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Masashi Inagaki.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Irie &amp; Ono, 2011 : Two new species of the spider genus Falcileptoneta (Araneae, Leptonetidae) from Gifu and Mie Prefectures, Honshu, Japan. Bulletin of the National Museum of Nature and Science, Tokyo, sér. A, vol. 37, p. 73-78 (texte original).</t>
         </is>
